--- a/logs/2020-03-26/xt.xlsx
+++ b/logs/2020-03-26/xt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/logs/2020-03-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_928E5DCDC401E8C185D210E592BACA755021F5B2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D96C9553-7F5C-4095-BACC-05AAC241153F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_928E5DCDC401E8C185D210E592BACA755021F5B2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A369957F-7733-445C-9EEE-C76E83D3A698}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="0" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8282,12 +8282,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -8321,12 +8327,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8666,11 +8674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U900"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U57" sqref="U57"/>
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8740,7 +8748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1585180800</v>
       </c>
@@ -8805,7 +8813,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1585180800</v>
       </c>
@@ -8870,7 +8878,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1585180800</v>
       </c>
@@ -8935,7 +8943,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1585180800</v>
       </c>
@@ -9000,7 +9008,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1585180800</v>
       </c>
@@ -9130,7 +9138,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1585180800</v>
       </c>
@@ -9195,7 +9203,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1585180800</v>
       </c>
@@ -9260,7 +9268,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1585180800</v>
       </c>
@@ -9325,7 +9333,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1585180800</v>
       </c>
@@ -9390,7 +9398,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1585180800</v>
       </c>
@@ -9455,7 +9463,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1585180800</v>
       </c>
@@ -9520,7 +9528,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1585180800</v>
       </c>
@@ -9585,7 +9593,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1585180800</v>
       </c>
@@ -9650,7 +9658,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1585180800</v>
       </c>
@@ -9715,7 +9723,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1585180800</v>
       </c>
@@ -9780,7 +9788,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1585180800</v>
       </c>
@@ -9845,7 +9853,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1585180800</v>
       </c>
@@ -9910,7 +9918,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1585180800</v>
       </c>
@@ -9975,7 +9983,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1585180800</v>
       </c>
@@ -10040,7 +10048,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1585180800</v>
       </c>
@@ -10105,7 +10113,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1585180800</v>
       </c>
@@ -10235,7 +10243,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1585180800</v>
       </c>
@@ -10300,7 +10308,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1585180800</v>
       </c>
@@ -10365,7 +10373,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1585180800</v>
       </c>
@@ -10430,7 +10438,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1585180800</v>
       </c>
@@ -10495,7 +10503,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1585180800</v>
       </c>
@@ -10560,7 +10568,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1585180800</v>
       </c>
@@ -10625,7 +10633,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1585180800</v>
       </c>
@@ -10690,7 +10698,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1585180800</v>
       </c>
@@ -10755,7 +10763,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1585180800</v>
       </c>
@@ -10820,7 +10828,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1585180800</v>
       </c>
@@ -10885,7 +10893,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1585180800</v>
       </c>
@@ -10950,7 +10958,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1585180800</v>
       </c>
@@ -11015,7 +11023,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1585180800</v>
       </c>
@@ -11080,7 +11088,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1585180800</v>
       </c>
@@ -11145,7 +11153,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1585180800</v>
       </c>
@@ -11210,7 +11218,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1585180800</v>
       </c>
@@ -11340,7 +11348,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1585180800</v>
       </c>
@@ -11405,7 +11413,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1585180800</v>
       </c>
@@ -11470,7 +11478,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1585180800</v>
       </c>
@@ -11535,7 +11543,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1585180800</v>
       </c>
@@ -11600,7 +11608,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1585180800</v>
       </c>
@@ -11665,7 +11673,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1585180800</v>
       </c>
@@ -11730,7 +11738,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1585180800</v>
       </c>
@@ -11795,7 +11803,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1585180800</v>
       </c>
@@ -11860,7 +11868,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1585180800</v>
       </c>
@@ -11925,7 +11933,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1585180800</v>
       </c>
@@ -11990,7 +11998,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1585180800</v>
       </c>
@@ -12055,7 +12063,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1585180800</v>
       </c>
@@ -12120,7 +12128,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1585180800</v>
       </c>
@@ -12185,7 +12193,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1585180800</v>
       </c>
@@ -12250,7 +12258,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1585180800</v>
       </c>
@@ -12380,7 +12388,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1585180800</v>
       </c>
@@ -12445,7 +12453,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1585180800</v>
       </c>
@@ -12510,7 +12518,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1585180800</v>
       </c>
@@ -12575,7 +12583,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1585180800</v>
       </c>
@@ -12640,7 +12648,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1585180800</v>
       </c>
@@ -12705,7 +12713,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1585180800</v>
       </c>
@@ -12770,7 +12778,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1585180800</v>
       </c>
@@ -12835,7 +12843,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1585180800</v>
       </c>
@@ -12900,7 +12908,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1585180800</v>
       </c>
@@ -12965,7 +12973,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1585180800</v>
       </c>
@@ -13030,7 +13038,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1585180800</v>
       </c>
@@ -13095,7 +13103,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1585180800</v>
       </c>
@@ -13160,7 +13168,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1585180800</v>
       </c>
@@ -13225,7 +13233,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1585180800</v>
       </c>
@@ -13290,7 +13298,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1585180800</v>
       </c>
@@ -13355,7 +13363,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1585180800</v>
       </c>
@@ -13420,7 +13428,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1585180800</v>
       </c>
@@ -13485,7 +13493,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1585180800</v>
       </c>
@@ -13550,7 +13558,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1585180800</v>
       </c>
@@ -13615,7 +13623,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1585180800</v>
       </c>
@@ -13680,7 +13688,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1585180800</v>
       </c>
@@ -13745,7 +13753,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1585180800</v>
       </c>
@@ -13810,7 +13818,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1585180800</v>
       </c>
@@ -13875,7 +13883,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1585180800</v>
       </c>
@@ -13940,7 +13948,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1585180800</v>
       </c>
@@ -14005,7 +14013,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1585180800</v>
       </c>
@@ -14070,7 +14078,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1585180800</v>
       </c>
@@ -14265,7 +14273,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1585180800</v>
       </c>
@@ -14330,7 +14338,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1585180800</v>
       </c>
@@ -14395,7 +14403,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1585180800</v>
       </c>
@@ -14460,7 +14468,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1585180800</v>
       </c>
@@ -14590,7 +14598,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1585180800</v>
       </c>
@@ -14720,7 +14728,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1585180800</v>
       </c>
@@ -14850,7 +14858,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1585180800</v>
       </c>
@@ -14915,7 +14923,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1585180800</v>
       </c>
@@ -14980,7 +14988,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1585180800</v>
       </c>
@@ -15045,7 +15053,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1585180800</v>
       </c>
@@ -15110,7 +15118,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1585180800</v>
       </c>
@@ -15435,7 +15443,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1585180800</v>
       </c>
@@ -15500,7 +15508,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1585180800</v>
       </c>
@@ -15630,7 +15638,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1585180800</v>
       </c>
@@ -15825,7 +15833,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1585180800</v>
       </c>
@@ -15890,7 +15898,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1585180800</v>
       </c>
@@ -15955,7 +15963,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1585180800</v>
       </c>
@@ -16085,7 +16093,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1585180800</v>
       </c>
@@ -16150,7 +16158,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1585180800</v>
       </c>
@@ -16280,7 +16288,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1585180800</v>
       </c>
@@ -16410,7 +16418,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1585180800</v>
       </c>
@@ -16475,7 +16483,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1585180800</v>
       </c>
@@ -16540,7 +16548,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1585180800</v>
       </c>
@@ -16735,7 +16743,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1585180800</v>
       </c>
@@ -16800,7 +16808,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1585180800</v>
       </c>
@@ -16859,7 +16867,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1585180800</v>
       </c>
@@ -16989,7 +16997,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1585180800</v>
       </c>
@@ -17048,7 +17056,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1585180800</v>
       </c>
@@ -17113,7 +17121,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1585180800</v>
       </c>
@@ -17172,7 +17180,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1585180800</v>
       </c>
@@ -17237,7 +17245,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1585180800</v>
       </c>
@@ -17302,7 +17310,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1585180800</v>
       </c>
@@ -17361,7 +17369,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1585180800</v>
       </c>
@@ -17426,7 +17434,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1585180800</v>
       </c>
@@ -17547,7 +17555,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1585180800</v>
       </c>
@@ -17612,7 +17620,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1585180800</v>
       </c>
@@ -17674,7 +17682,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1585180800</v>
       </c>
@@ -17739,7 +17747,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1585180800</v>
       </c>
@@ -17869,7 +17877,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1585180800</v>
       </c>
@@ -17934,7 +17942,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1585180800</v>
       </c>
@@ -18129,7 +18137,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1585180800</v>
       </c>
@@ -18194,7 +18202,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1585180800</v>
       </c>
@@ -18259,7 +18267,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1585180800</v>
       </c>
@@ -18318,7 +18326,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1585180800</v>
       </c>
@@ -18383,7 +18391,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1585180800</v>
       </c>
@@ -18442,7 +18450,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1585180800</v>
       </c>
@@ -18501,7 +18509,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1585180800</v>
       </c>
@@ -18566,7 +18574,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1585180800</v>
       </c>
@@ -18631,7 +18639,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1585180800</v>
       </c>
@@ -18690,7 +18698,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1585180800</v>
       </c>
@@ -18755,7 +18763,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1585180800</v>
       </c>
@@ -18820,7 +18828,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1585180800</v>
       </c>
@@ -18885,7 +18893,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1585180800</v>
       </c>
@@ -18950,7 +18958,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1585180800</v>
       </c>
@@ -19074,7 +19082,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1585180800</v>
       </c>
@@ -19133,7 +19141,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1585180800</v>
       </c>
@@ -19260,7 +19268,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1585180800</v>
       </c>
@@ -19384,7 +19392,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1585180800</v>
       </c>
@@ -19443,7 +19451,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1585180800</v>
       </c>
@@ -19508,7 +19516,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1585180800</v>
       </c>
@@ -19567,7 +19575,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1585180800</v>
       </c>
@@ -19694,7 +19702,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1585180800</v>
       </c>
@@ -19753,7 +19761,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1585180800</v>
       </c>
@@ -19812,7 +19820,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1585180800</v>
       </c>
@@ -19877,7 +19885,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1585180800</v>
       </c>
@@ -19936,7 +19944,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1585180800</v>
       </c>
@@ -20066,7 +20074,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1585180800</v>
       </c>
@@ -20131,7 +20139,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1585180800</v>
       </c>
@@ -20261,7 +20269,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1585180800</v>
       </c>
@@ -20521,7 +20529,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1585180800</v>
       </c>
@@ -20716,7 +20724,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1585180800</v>
       </c>
@@ -20775,7 +20783,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1585180800</v>
       </c>
@@ -20840,7 +20848,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1585180800</v>
       </c>
@@ -20905,7 +20913,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1585180800</v>
       </c>
@@ -20964,7 +20972,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1585180800</v>
       </c>
@@ -21023,7 +21031,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1585180800</v>
       </c>
@@ -21088,7 +21096,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1585180800</v>
       </c>
@@ -21147,7 +21155,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1585180800</v>
       </c>
@@ -21206,7 +21214,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1585180800</v>
       </c>
@@ -21271,7 +21279,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1585180800</v>
       </c>
@@ -21330,7 +21338,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1585180800</v>
       </c>
@@ -21395,7 +21403,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1585180800</v>
       </c>
@@ -21460,7 +21468,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1585180800</v>
       </c>
@@ -21720,7 +21728,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1585180800</v>
       </c>
@@ -21844,7 +21852,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1585180800</v>
       </c>
@@ -21909,7 +21917,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1585180800</v>
       </c>
@@ -21974,7 +21982,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1585180800</v>
       </c>
@@ -22104,7 +22112,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1585180800</v>
       </c>
@@ -22364,7 +22372,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1585180800</v>
       </c>
@@ -22429,7 +22437,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1585180800</v>
       </c>
@@ -22494,7 +22502,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1585180800</v>
       </c>
@@ -22559,7 +22567,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1585180800</v>
       </c>
@@ -22754,7 +22762,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1585180800</v>
       </c>
@@ -22819,7 +22827,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1585180800</v>
       </c>
@@ -22949,7 +22957,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1585180800</v>
       </c>
@@ -23014,7 +23022,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1585180800</v>
       </c>
@@ -23079,7 +23087,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1585180800</v>
       </c>
@@ -23144,7 +23152,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1585180800</v>
       </c>
@@ -23209,7 +23217,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1585180800</v>
       </c>
@@ -23336,7 +23344,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1585180800</v>
       </c>
@@ -23401,7 +23409,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1585180800</v>
       </c>
@@ -23460,7 +23468,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1585180800</v>
       </c>
@@ -23525,7 +23533,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1585180800</v>
       </c>
@@ -23655,7 +23663,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1585180800</v>
       </c>
@@ -23720,7 +23728,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1585180800</v>
       </c>
@@ -23785,7 +23793,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1585180800</v>
       </c>
@@ -23850,7 +23858,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1585180800</v>
       </c>
@@ -23915,7 +23923,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1585180800</v>
       </c>
@@ -23974,7 +23982,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1585180800</v>
       </c>
@@ -24039,7 +24047,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1585180800</v>
       </c>
@@ -24104,7 +24112,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1585180800</v>
       </c>
@@ -24234,7 +24242,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1585180800</v>
       </c>
@@ -24364,7 +24372,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1585180800</v>
       </c>
@@ -24423,7 +24431,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1585180800</v>
       </c>
@@ -24482,7 +24490,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1585180800</v>
       </c>
@@ -24547,7 +24555,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1585180800</v>
       </c>
@@ -24612,7 +24620,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1585180800</v>
       </c>
@@ -24677,7 +24685,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1585180800</v>
       </c>
@@ -24807,7 +24815,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1585180800</v>
       </c>
@@ -24866,7 +24874,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1585180800</v>
       </c>
@@ -24931,7 +24939,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1585180800</v>
       </c>
@@ -24996,7 +25004,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1585180800</v>
       </c>
@@ -25123,7 +25131,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1585180800</v>
       </c>
@@ -25253,7 +25261,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1585180800</v>
       </c>
@@ -25312,7 +25320,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1585180800</v>
       </c>
@@ -25377,7 +25385,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1585180800</v>
       </c>
@@ -25442,7 +25450,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1585180800</v>
       </c>
@@ -25507,7 +25515,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1585180800</v>
       </c>
@@ -25572,7 +25580,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1585180800</v>
       </c>
@@ -25696,7 +25704,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1585180800</v>
       </c>
@@ -25755,7 +25763,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1585180800</v>
       </c>
@@ -25820,7 +25828,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1585180800</v>
       </c>
@@ -25885,7 +25893,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1585180800</v>
       </c>
@@ -25950,7 +25958,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1585180800</v>
       </c>
@@ -26015,7 +26023,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1585180800</v>
       </c>
@@ -26074,7 +26082,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1585180800</v>
       </c>
@@ -26139,7 +26147,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1585180800</v>
       </c>
@@ -26204,7 +26212,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1585180800</v>
       </c>
@@ -26263,7 +26271,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1585180800</v>
       </c>
@@ -26328,7 +26336,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1585180800</v>
       </c>
@@ -26393,7 +26401,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1585180800</v>
       </c>
@@ -26458,7 +26466,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1585180800</v>
       </c>
@@ -26523,7 +26531,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1585180800</v>
       </c>
@@ -26588,7 +26596,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1585180800</v>
       </c>
@@ -26647,7 +26655,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1585180800</v>
       </c>
@@ -26777,7 +26785,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1585180800</v>
       </c>
@@ -26836,7 +26844,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1585180800</v>
       </c>
@@ -26895,7 +26903,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1585180800</v>
       </c>
@@ -26960,7 +26968,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1585180800</v>
       </c>
@@ -27019,7 +27027,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1585180800</v>
       </c>
@@ -27149,7 +27157,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1585180800</v>
       </c>
@@ -27214,7 +27222,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1585180800</v>
       </c>
@@ -27273,7 +27281,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1585180800</v>
       </c>
@@ -27338,7 +27346,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1585180800</v>
       </c>
@@ -27403,7 +27411,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1585180800</v>
       </c>
@@ -27462,7 +27470,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1585180800</v>
       </c>
@@ -27521,7 +27529,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1585180800</v>
       </c>
@@ -27586,7 +27594,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1585180800</v>
       </c>
@@ -27645,7 +27653,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1585180800</v>
       </c>
@@ -27710,7 +27718,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1585180800</v>
       </c>
@@ -27769,7 +27777,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1585180800</v>
       </c>
@@ -27899,7 +27907,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1585180800</v>
       </c>
@@ -27958,7 +27966,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1585180800</v>
       </c>
@@ -28017,7 +28025,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1585180800</v>
       </c>
@@ -28082,7 +28090,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1585180800</v>
       </c>
@@ -28141,7 +28149,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1585180800</v>
       </c>
@@ -28206,7 +28214,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1585180800</v>
       </c>
@@ -28265,7 +28273,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1585180800</v>
       </c>
@@ -28330,7 +28338,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1585180800</v>
       </c>
@@ -28395,7 +28403,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1585180800</v>
       </c>
@@ -28454,7 +28462,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1585180800</v>
       </c>
@@ -28513,7 +28521,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1585180800</v>
       </c>
@@ -28572,7 +28580,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1585180800</v>
       </c>
@@ -28637,7 +28645,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1585180800</v>
       </c>
@@ -28702,7 +28710,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1585180800</v>
       </c>
@@ -28767,7 +28775,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1585180800</v>
       </c>
@@ -28832,7 +28840,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1585180800</v>
       </c>
@@ -28891,7 +28899,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1585180800</v>
       </c>
@@ -28956,7 +28964,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1585180800</v>
       </c>
@@ -29015,7 +29023,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1585180800</v>
       </c>
@@ -29074,7 +29082,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1585180800</v>
       </c>
@@ -29133,7 +29141,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1585180800</v>
       </c>
@@ -29192,7 +29200,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1585180800</v>
       </c>
@@ -29251,7 +29259,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1585180800</v>
       </c>
@@ -29316,7 +29324,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1585180800</v>
       </c>
@@ -29440,7 +29448,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1585180800</v>
       </c>
@@ -29499,7 +29507,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1585180800</v>
       </c>
@@ -29558,7 +29566,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1585180800</v>
       </c>
@@ -29623,7 +29631,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1585180800</v>
       </c>
@@ -29688,7 +29696,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1585180800</v>
       </c>
@@ -29747,7 +29755,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1585180800</v>
       </c>
@@ -29812,7 +29820,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1585180800</v>
       </c>
@@ -29871,7 +29879,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1585180800</v>
       </c>
@@ -29936,7 +29944,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1585180800</v>
       </c>
@@ -30060,7 +30068,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1585180800</v>
       </c>
@@ -30125,7 +30133,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1585180800</v>
       </c>
@@ -30190,7 +30198,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1585180800</v>
       </c>
@@ -30255,7 +30263,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1585180800</v>
       </c>
@@ -30314,7 +30322,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1585180800</v>
       </c>
@@ -30379,7 +30387,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1585180800</v>
       </c>
@@ -30438,7 +30446,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1585180800</v>
       </c>
@@ -30503,7 +30511,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1585180800</v>
       </c>
@@ -30568,7 +30576,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1585180800</v>
       </c>
@@ -30633,7 +30641,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1585180800</v>
       </c>
@@ -30698,7 +30706,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1585180800</v>
       </c>
@@ -30763,7 +30771,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1585180800</v>
       </c>
@@ -30828,7 +30836,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1585180800</v>
       </c>
@@ -30887,7 +30895,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1585180800</v>
       </c>
@@ -30946,7 +30954,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1585180800</v>
       </c>
@@ -31011,7 +31019,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1585180800</v>
       </c>
@@ -31076,7 +31084,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1585180800</v>
       </c>
@@ -31200,7 +31208,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1585180800</v>
       </c>
@@ -31330,7 +31338,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1585180800</v>
       </c>
@@ -31395,7 +31403,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1585180800</v>
       </c>
@@ -31454,7 +31462,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1585180800</v>
       </c>
@@ -31519,7 +31527,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1585180800</v>
       </c>
@@ -31584,7 +31592,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1585180800</v>
       </c>
@@ -31714,7 +31722,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1585180800</v>
       </c>
@@ -31779,7 +31787,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1585180800</v>
       </c>
@@ -31841,7 +31849,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1585180800</v>
       </c>
@@ -31906,7 +31914,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1585180800</v>
       </c>
@@ -31971,7 +31979,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1585180800</v>
       </c>
@@ -32036,7 +32044,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1585180800</v>
       </c>
@@ -32095,7 +32103,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1585180800</v>
       </c>
@@ -32160,7 +32168,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1585180800</v>
       </c>
@@ -32284,7 +32292,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1585180800</v>
       </c>
@@ -32349,7 +32357,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1585180800</v>
       </c>
@@ -32414,7 +32422,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1585180800</v>
       </c>
@@ -32476,7 +32484,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1585180800</v>
       </c>
@@ -32541,7 +32549,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1585180800</v>
       </c>
@@ -32603,7 +32611,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1585180800</v>
       </c>
@@ -32662,7 +32670,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1585180800</v>
       </c>
@@ -32721,7 +32729,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1585180800</v>
       </c>
@@ -32786,7 +32794,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1585180800</v>
       </c>
@@ -32851,7 +32859,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1585180800</v>
       </c>
@@ -32913,7 +32921,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1585180800</v>
       </c>
@@ -32978,7 +32986,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1585180800</v>
       </c>
@@ -33043,7 +33051,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1585180800</v>
       </c>
@@ -33167,7 +33175,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1585180800</v>
       </c>
@@ -33232,7 +33240,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1585180800</v>
       </c>
@@ -33291,7 +33299,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1585180800</v>
       </c>
@@ -33421,7 +33429,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1585180800</v>
       </c>
@@ -33551,7 +33559,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1585180800</v>
       </c>
@@ -33616,7 +33624,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1585180800</v>
       </c>
@@ -33675,7 +33683,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1585180800</v>
       </c>
@@ -33740,7 +33748,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1585180800</v>
       </c>
@@ -33805,7 +33813,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1585180800</v>
       </c>
@@ -33864,7 +33872,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1585180800</v>
       </c>
@@ -33994,7 +34002,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1585180800</v>
       </c>
@@ -34059,7 +34067,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1585180800</v>
       </c>
@@ -34183,7 +34191,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1585180800</v>
       </c>
@@ -34242,7 +34250,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1585180800</v>
       </c>
@@ -34366,7 +34374,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1585180800</v>
       </c>
@@ -34425,7 +34433,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1585180800</v>
       </c>
@@ -34484,7 +34492,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1585180800</v>
       </c>
@@ -34549,7 +34557,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1585180800</v>
       </c>
@@ -34614,7 +34622,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1585180800</v>
       </c>
@@ -34679,7 +34687,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1585180800</v>
       </c>
@@ -34744,7 +34752,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1585180800</v>
       </c>
@@ -35004,7 +35012,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1585180800</v>
       </c>
@@ -35066,7 +35074,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="415" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1585180800</v>
       </c>
@@ -35125,7 +35133,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1585180800</v>
       </c>
@@ -35184,7 +35192,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1585180800</v>
       </c>
@@ -35249,7 +35257,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1585180800</v>
       </c>
@@ -35314,7 +35322,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="419" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1585180800</v>
       </c>
@@ -35379,7 +35387,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1585180800</v>
       </c>
@@ -35438,7 +35446,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1585180800</v>
       </c>
@@ -35497,7 +35505,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1585180800</v>
       </c>
@@ -35556,7 +35564,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1585180800</v>
       </c>
@@ -35621,7 +35629,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1585180800</v>
       </c>
@@ -35745,7 +35753,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1585180800</v>
       </c>
@@ -35810,7 +35818,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1585180800</v>
       </c>
@@ -35940,7 +35948,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="429" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1585180800</v>
       </c>
@@ -35999,7 +36007,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1585180800</v>
       </c>
@@ -36058,7 +36066,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1585180800</v>
       </c>
@@ -36123,7 +36131,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1585180800</v>
       </c>
@@ -36182,7 +36190,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1585180800</v>
       </c>
@@ -36247,7 +36255,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1585180800</v>
       </c>
@@ -36312,7 +36320,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1585180800</v>
       </c>
@@ -36377,7 +36385,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1585180800</v>
       </c>
@@ -36442,7 +36450,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1585180800</v>
       </c>
@@ -36566,7 +36574,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1585180800</v>
       </c>
@@ -36631,7 +36639,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1585180800</v>
       </c>
@@ -36696,7 +36704,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>1585180800</v>
       </c>
@@ -36761,7 +36769,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>1585180800</v>
       </c>
@@ -36826,7 +36834,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1585180800</v>
       </c>
@@ -36891,7 +36899,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>1585180800</v>
       </c>
@@ -36950,7 +36958,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1585180800</v>
       </c>
@@ -37015,7 +37023,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1585180800</v>
       </c>
@@ -37080,7 +37088,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1585180800</v>
       </c>
@@ -37145,7 +37153,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1585180800</v>
       </c>
@@ -37340,7 +37348,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>1585180800</v>
       </c>
@@ -37405,7 +37413,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1585180800</v>
       </c>
@@ -37535,7 +37543,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>1585180800</v>
       </c>
@@ -37600,7 +37608,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>1585180800</v>
       </c>
@@ -37665,7 +37673,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>1585180800</v>
       </c>
@@ -37724,7 +37732,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>1585180800</v>
       </c>
@@ -37783,7 +37791,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>1585180800</v>
       </c>
@@ -37842,7 +37850,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>1585180800</v>
       </c>
@@ -37901,7 +37909,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>1585180800</v>
       </c>
@@ -37966,7 +37974,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1585180800</v>
       </c>
@@ -38025,7 +38033,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>1585180800</v>
       </c>
@@ -38090,7 +38098,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>1585180800</v>
       </c>
@@ -38149,7 +38157,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>1585180800</v>
       </c>
@@ -38214,7 +38222,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>1585180800</v>
       </c>
@@ -38279,7 +38287,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1585180800</v>
       </c>
@@ -38344,7 +38352,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>1585180800</v>
       </c>
@@ -38468,7 +38476,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>1585180800</v>
       </c>
@@ -38533,7 +38541,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1585180800</v>
       </c>
@@ -38716,7 +38724,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>1585180800</v>
       </c>
@@ -38775,7 +38783,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>1585180800</v>
       </c>
@@ -38840,7 +38848,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1585180800</v>
       </c>
@@ -38899,7 +38907,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>1585180800</v>
       </c>
@@ -39029,7 +39037,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1585180800</v>
       </c>
@@ -39094,7 +39102,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1585180800</v>
       </c>
@@ -39218,7 +39226,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>1585180800</v>
       </c>
@@ -39277,7 +39285,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>1585180800</v>
       </c>
@@ -39342,7 +39350,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>1585180800</v>
       </c>
@@ -39407,7 +39415,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="484" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>1585180800</v>
       </c>
@@ -39472,7 +39480,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>1585180800</v>
       </c>
@@ -39537,7 +39545,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>1585180800</v>
       </c>
@@ -39726,7 +39734,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>1585180800</v>
       </c>
@@ -39853,7 +39861,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>1585180800</v>
       </c>
@@ -39918,7 +39926,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>1585180800</v>
       </c>
@@ -39983,7 +39991,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>1585180800</v>
       </c>
@@ -40042,7 +40050,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>1585180800</v>
       </c>
@@ -40101,7 +40109,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>1585180800</v>
       </c>
@@ -40160,7 +40168,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>1585180800</v>
       </c>
@@ -40225,7 +40233,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>1585180800</v>
       </c>
@@ -40355,7 +40363,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>1585180800</v>
       </c>
@@ -40420,7 +40428,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>1585180800</v>
       </c>
@@ -40550,7 +40558,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>1585180800</v>
       </c>
@@ -40680,7 +40688,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1585180800</v>
       </c>
@@ -40810,7 +40818,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>1585180800</v>
       </c>
@@ -40875,7 +40883,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>1585180800</v>
       </c>
@@ -40940,7 +40948,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1585180800</v>
       </c>
@@ -41005,7 +41013,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>1585180800</v>
       </c>
@@ -41070,7 +41078,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>1585180800</v>
       </c>
@@ -41135,7 +41143,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>1585180800</v>
       </c>
@@ -41327,7 +41335,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>1585180800</v>
       </c>
@@ -41386,7 +41394,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>1585180800</v>
       </c>
@@ -41448,7 +41456,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>1585180800</v>
       </c>
@@ -41510,7 +41518,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>1585180800</v>
       </c>
@@ -41575,7 +41583,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>1585180800</v>
       </c>
@@ -41637,7 +41645,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>1585180800</v>
       </c>
@@ -41702,7 +41710,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>1585180800</v>
       </c>
@@ -41891,7 +41899,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1585180800</v>
       </c>
@@ -41953,7 +41961,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>1585180800</v>
       </c>
@@ -42015,7 +42023,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>1585180800</v>
       </c>
@@ -42080,7 +42088,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>1585180800</v>
       </c>
@@ -42145,7 +42153,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>1585180800</v>
       </c>
@@ -42210,7 +42218,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>1585180800</v>
       </c>
@@ -42275,7 +42283,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>1585180800</v>
       </c>
@@ -42334,7 +42342,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>1585180800</v>
       </c>
@@ -42399,7 +42407,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>1585180800</v>
       </c>
@@ -42458,7 +42466,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>1585180800</v>
       </c>
@@ -42517,7 +42525,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>1585180800</v>
       </c>
@@ -42647,7 +42655,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>1585180800</v>
       </c>
@@ -42771,7 +42779,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>1585180800</v>
       </c>
@@ -42836,7 +42844,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>1585180800</v>
       </c>
@@ -42895,7 +42903,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>1585180800</v>
       </c>
@@ -42960,7 +42968,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>1585180800</v>
       </c>
@@ -43025,7 +43033,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>1585180800</v>
       </c>
@@ -43090,7 +43098,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1585180800</v>
       </c>
@@ -43155,7 +43163,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>1585180800</v>
       </c>
@@ -43220,7 +43228,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>1585180800</v>
       </c>
@@ -43350,7 +43358,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>1585180800</v>
       </c>
@@ -43409,7 +43417,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>1585180800</v>
       </c>
@@ -43533,7 +43541,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>1585180800</v>
       </c>
@@ -43592,7 +43600,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>1585180800</v>
       </c>
@@ -43651,7 +43659,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>1585180800</v>
       </c>
@@ -43781,7 +43789,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>1585180800</v>
       </c>
@@ -43840,7 +43848,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>1585180800</v>
       </c>
@@ -43905,7 +43913,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>1585180800</v>
       </c>
@@ -44029,7 +44037,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>1585180800</v>
       </c>
@@ -44091,7 +44099,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>1585180800</v>
       </c>
@@ -44156,7 +44164,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>1585180800</v>
       </c>
@@ -44215,7 +44223,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1585180800</v>
       </c>
@@ -44280,7 +44288,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1585180800</v>
       </c>
@@ -44345,7 +44353,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>1585180800</v>
       </c>
@@ -44475,7 +44483,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="564" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>1585180800</v>
       </c>
@@ -44537,7 +44545,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="565" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>1585180800</v>
       </c>
@@ -44596,7 +44604,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="566" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>1585180800</v>
       </c>
@@ -44791,7 +44799,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1585180800</v>
       </c>
@@ -44856,7 +44864,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>1585180800</v>
       </c>
@@ -44915,7 +44923,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>1585180800</v>
       </c>
@@ -44974,7 +44982,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>1585180800</v>
       </c>
@@ -45033,7 +45041,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1585180800</v>
       </c>
@@ -45163,7 +45171,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>1585180800</v>
       </c>
@@ -45352,7 +45360,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="578" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>1585180800</v>
       </c>
@@ -45476,7 +45484,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="580" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1585180800</v>
       </c>
@@ -45541,7 +45549,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>1585180800</v>
       </c>
@@ -45603,68 +45611,68 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A582">
-        <v>1585180800</v>
-      </c>
-      <c r="B582" t="s">
-        <v>21</v>
-      </c>
-      <c r="C582" t="s">
+    <row r="582" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="3">
+        <v>1585180800</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C582" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D582" t="s">
+      <c r="D582" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="E582">
+      <c r="E582" s="3">
         <v>7.43</v>
       </c>
-      <c r="F582">
+      <c r="F582" s="3">
         <v>7.43</v>
       </c>
-      <c r="G582">
+      <c r="G582" s="3">
         <v>7.26</v>
       </c>
-      <c r="H582">
+      <c r="H582" s="3">
         <v>7.27</v>
       </c>
-      <c r="I582">
+      <c r="I582" s="3">
         <v>13342100</v>
       </c>
-      <c r="J582">
+      <c r="J582" s="3">
         <v>-2.1534320323014819</v>
       </c>
-      <c r="K582">
+      <c r="K582" s="3">
         <v>-94.11764705882365</v>
       </c>
-      <c r="L582">
+      <c r="L582" s="3">
         <v>-100</v>
       </c>
-      <c r="M582" t="s">
+      <c r="M582" s="3" t="s">
         <v>1824</v>
       </c>
-      <c r="N582">
-        <v>0</v>
-      </c>
-      <c r="O582">
-        <v>0</v>
-      </c>
-      <c r="P582">
-        <v>0</v>
-      </c>
-      <c r="Q582">
-        <v>0</v>
-      </c>
-      <c r="R582" t="s">
+      <c r="N582" s="3">
+        <v>0</v>
+      </c>
+      <c r="O582" s="3">
+        <v>0</v>
+      </c>
+      <c r="P582" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q582" s="3">
+        <v>0</v>
+      </c>
+      <c r="R582" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="S582" t="s">
+      <c r="S582" s="3" t="s">
         <v>1829</v>
       </c>
-      <c r="T582" t="s">
-        <v>1841</v>
-      </c>
-      <c r="U582" s="2" t="s">
+      <c r="T582" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="U582" s="4" t="s">
         <v>2424</v>
       </c>
     </row>
@@ -45798,7 +45806,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="585" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>1585180800</v>
       </c>
@@ -45857,7 +45865,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="586" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>1585180800</v>
       </c>
@@ -45922,7 +45930,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="587" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>1585180800</v>
       </c>
@@ -46108,7 +46116,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="590" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>1585180800</v>
       </c>
@@ -46167,7 +46175,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>1585180800</v>
       </c>
@@ -46291,7 +46299,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="593" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>1585180800</v>
       </c>
@@ -46415,7 +46423,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="595" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>1585180800</v>
       </c>
@@ -46474,7 +46482,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="596" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>1585180800</v>
       </c>
@@ -46539,7 +46547,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="597" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>1585180800</v>
       </c>
@@ -46598,7 +46606,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="598" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>1585180800</v>
       </c>
@@ -46663,7 +46671,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="599" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1585180800</v>
       </c>
@@ -46728,7 +46736,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="600" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>1585180800</v>
       </c>
@@ -46852,7 +46860,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>1585180800</v>
       </c>
@@ -46976,7 +46984,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>1585180800</v>
       </c>
@@ -47038,7 +47046,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="605" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>1585180800</v>
       </c>
@@ -47162,7 +47170,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="607" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>1585180800</v>
       </c>
@@ -47292,7 +47300,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="609" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>1585180800</v>
       </c>
@@ -47351,7 +47359,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="610" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>1585180800</v>
       </c>
@@ -47416,7 +47424,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="611" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>1585180800</v>
       </c>
@@ -47481,7 +47489,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="612" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>1585180800</v>
       </c>
@@ -47540,7 +47548,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="613" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1585180800</v>
       </c>
@@ -47605,7 +47613,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="614" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>1585180800</v>
       </c>
@@ -47667,7 +47675,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="615" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>1585180800</v>
       </c>
@@ -47726,7 +47734,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="616" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>1585180800</v>
       </c>
@@ -47791,7 +47799,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="617" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>1585180800</v>
       </c>
@@ -47856,7 +47864,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="618" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>1585180800</v>
       </c>
@@ -47986,7 +47994,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="620" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>1585180800</v>
       </c>
@@ -48051,7 +48059,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="621" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>1585180800</v>
       </c>
@@ -48116,7 +48124,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="622" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>1585180800</v>
       </c>
@@ -48299,7 +48307,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="625" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>1585180800</v>
       </c>
@@ -48429,7 +48437,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="627" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>1585180800</v>
       </c>
@@ -48488,7 +48496,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="628" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>1585180800</v>
       </c>
@@ -48553,7 +48561,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="629" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>1585180800</v>
       </c>
@@ -48618,7 +48626,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="630" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>1585180800</v>
       </c>
@@ -48748,7 +48756,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="632" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>1585180800</v>
       </c>
@@ -48872,7 +48880,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="634" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>1585180800</v>
       </c>
@@ -48931,7 +48939,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="635" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>1585180800</v>
       </c>
@@ -48996,7 +49004,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="636" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>1585180800</v>
       </c>
@@ -49120,7 +49128,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="638" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>1585180800</v>
       </c>
@@ -49185,7 +49193,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="639" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>1585180800</v>
       </c>
@@ -49250,7 +49258,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="640" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>1585180800</v>
       </c>
@@ -49309,7 +49317,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="641" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1585180800</v>
       </c>
@@ -49371,7 +49379,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="642" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>1585180800</v>
       </c>
@@ -49501,7 +49509,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="644" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>1585180800</v>
       </c>
@@ -49560,7 +49568,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="645" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>1585180800</v>
       </c>
@@ -49625,7 +49633,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="646" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>1585180800</v>
       </c>
@@ -49755,7 +49763,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="648" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>1585180800</v>
       </c>
@@ -49817,7 +49825,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="649" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>1585180800</v>
       </c>
@@ -49876,7 +49884,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="650" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>1585180800</v>
       </c>
@@ -50006,7 +50014,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="652" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>1585180800</v>
       </c>
@@ -50065,7 +50073,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="653" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>1585180800</v>
       </c>
@@ -50195,7 +50203,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="655" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>1585180800</v>
       </c>
@@ -50325,7 +50333,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="657" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>1585180800</v>
       </c>
@@ -50387,7 +50395,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="658" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>1585180800</v>
       </c>
@@ -50446,7 +50454,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="659" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>1585180800</v>
       </c>
@@ -50505,7 +50513,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="660" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>1585180800</v>
       </c>
@@ -50570,7 +50578,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="661" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>1585180800</v>
       </c>
@@ -50629,7 +50637,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="662" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>1585180800</v>
       </c>
@@ -50688,7 +50696,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="663" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>1585180800</v>
       </c>
@@ -50747,7 +50755,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="664" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>1585180800</v>
       </c>
@@ -50812,7 +50820,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="665" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>1585180800</v>
       </c>
@@ -50877,7 +50885,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="666" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>1585180800</v>
       </c>
@@ -51069,7 +51077,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="669" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>1585180800</v>
       </c>
@@ -51134,7 +51142,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="670" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>1585180800</v>
       </c>
@@ -51193,7 +51201,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="671" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>1585180800</v>
       </c>
@@ -51252,7 +51260,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="672" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>1585180800</v>
       </c>
@@ -51317,7 +51325,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="673" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>1585180800</v>
       </c>
@@ -51382,7 +51390,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="674" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>1585180800</v>
       </c>
@@ -51441,7 +51449,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="675" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>1585180800</v>
       </c>
@@ -51506,7 +51514,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="676" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>1585180800</v>
       </c>
@@ -51701,7 +51709,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="679" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>1585180800</v>
       </c>
@@ -51763,7 +51771,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="680" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>1585180800</v>
       </c>
@@ -51828,7 +51836,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="681" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>1585180800</v>
       </c>
@@ -51893,7 +51901,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="682" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>1585180800</v>
       </c>
@@ -51958,7 +51966,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="683" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>1585180800</v>
       </c>
@@ -52023,7 +52031,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="684" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>1585180800</v>
       </c>
@@ -52088,7 +52096,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="685" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>1585180800</v>
       </c>
@@ -52153,7 +52161,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="686" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>1585180800</v>
       </c>
@@ -52212,7 +52220,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="687" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>1585180800</v>
       </c>
@@ -52271,7 +52279,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="688" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>1585180800</v>
       </c>
@@ -52330,7 +52338,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="689" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>1585180800</v>
       </c>
@@ -52389,7 +52397,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="690" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>1585180800</v>
       </c>
@@ -52448,7 +52456,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="691" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>1585180800</v>
       </c>
@@ -52507,7 +52515,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="692" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>1585180800</v>
       </c>
@@ -52572,7 +52580,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="693" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>1585180800</v>
       </c>
@@ -52631,7 +52639,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="694" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>1585180800</v>
       </c>
@@ -52696,7 +52704,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="695" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>1585180800</v>
       </c>
@@ -52761,7 +52769,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="696" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>1585180800</v>
       </c>
@@ -52826,7 +52834,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="697" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>1585180800</v>
       </c>
@@ -52885,7 +52893,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="698" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>1585180800</v>
       </c>
@@ -53080,7 +53088,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="701" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>1585180800</v>
       </c>
@@ -53145,7 +53153,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="702" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>1585180800</v>
       </c>
@@ -53210,7 +53218,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="703" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>1585180800</v>
       </c>
@@ -53275,7 +53283,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="704" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>1585180800</v>
       </c>
@@ -53334,7 +53342,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="705" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>1585180800</v>
       </c>
@@ -53399,7 +53407,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="706" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>1585180800</v>
       </c>
@@ -53464,7 +53472,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="707" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>1585180800</v>
       </c>
@@ -53529,7 +53537,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="708" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>1585180800</v>
       </c>
@@ -53588,7 +53596,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="709" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>1585180800</v>
       </c>
@@ -53653,7 +53661,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="710" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>1585180800</v>
       </c>
@@ -53715,7 +53723,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="711" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>1585180800</v>
       </c>
@@ -53845,7 +53853,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="713" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>1585180800</v>
       </c>
@@ -53910,7 +53918,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="714" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>1585180800</v>
       </c>
@@ -53975,7 +53983,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="715" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>1585180800</v>
       </c>
@@ -54040,7 +54048,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="716" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>1585180800</v>
       </c>
@@ -54105,7 +54113,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="717" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>1585180800</v>
       </c>
@@ -54170,7 +54178,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="718" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>1585180800</v>
       </c>
@@ -54229,7 +54237,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="719" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>1585180800</v>
       </c>
@@ -54294,7 +54302,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="720" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>1585180800</v>
       </c>
@@ -54359,7 +54367,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="721" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>1585180800</v>
       </c>
@@ -54424,7 +54432,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="722" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>1585180800</v>
       </c>
@@ -54554,7 +54562,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="724" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>1585180800</v>
       </c>
@@ -54619,7 +54627,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="725" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>1585180800</v>
       </c>
@@ -54684,7 +54692,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="726" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>1585180800</v>
       </c>
@@ -54743,7 +54751,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="727" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>1585180800</v>
       </c>
@@ -54802,7 +54810,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="728" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>1585180800</v>
       </c>
@@ -54867,7 +54875,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="729" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>1585180800</v>
       </c>
@@ -54932,7 +54940,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="730" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>1585180800</v>
       </c>
@@ -54997,7 +55005,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="731" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>1585180800</v>
       </c>
@@ -55056,7 +55064,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="732" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>1585180800</v>
       </c>
@@ -55115,7 +55123,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="733" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>1585180800</v>
       </c>
@@ -55180,7 +55188,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="734" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>1585180800</v>
       </c>
@@ -55239,7 +55247,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="735" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>1585180800</v>
       </c>
@@ -55363,7 +55371,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="737" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>1585180800</v>
       </c>
@@ -55428,7 +55436,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="738" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>1585180800</v>
       </c>
@@ -55552,7 +55560,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="740" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>1585180800</v>
       </c>
@@ -55617,7 +55625,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="741" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>1585180800</v>
       </c>
@@ -55747,7 +55755,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="743" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>1585180800</v>
       </c>
@@ -55812,7 +55820,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="744" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>1585180800</v>
       </c>
@@ -55942,7 +55950,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="746" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>1585180800</v>
       </c>
@@ -56007,7 +56015,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="747" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>1585180800</v>
       </c>
@@ -56072,7 +56080,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="748" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>1585180800</v>
       </c>
@@ -56137,7 +56145,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="749" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>1585180800</v>
       </c>
@@ -56202,7 +56210,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="750" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>1585180800</v>
       </c>
@@ -56267,7 +56275,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="751" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>1585180800</v>
       </c>
@@ -56332,7 +56340,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="752" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>1585180800</v>
       </c>
@@ -56586,7 +56594,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="756" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>1585180800</v>
       </c>
@@ -56716,7 +56724,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="758" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>1585180800</v>
       </c>
@@ -56775,7 +56783,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="759" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>1585180800</v>
       </c>
@@ -56970,7 +56978,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="762" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>1585180800</v>
       </c>
@@ -57035,7 +57043,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="763" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>1585180800</v>
       </c>
@@ -57165,7 +57173,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="765" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>1585180800</v>
       </c>
@@ -57230,7 +57238,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="766" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>1585180800</v>
       </c>
@@ -57295,7 +57303,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="767" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>1585180800</v>
       </c>
@@ -57360,7 +57368,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="768" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>1585180800</v>
       </c>
@@ -57419,7 +57427,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="769" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>1585180800</v>
       </c>
@@ -57484,7 +57492,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="770" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>1585180800</v>
       </c>
@@ -57543,7 +57551,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="771" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>1585180800</v>
       </c>
@@ -57602,7 +57610,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="772" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>1585180800</v>
       </c>
@@ -57729,7 +57737,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="774" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>1585180800</v>
       </c>
@@ -57859,7 +57867,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="776" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>1585180800</v>
       </c>
@@ -57924,7 +57932,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="777" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>1585180800</v>
       </c>
@@ -57983,7 +57991,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="778" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>1585180800</v>
       </c>
@@ -58048,7 +58056,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="779" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>1585180800</v>
       </c>
@@ -58113,7 +58121,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="780" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>1585180800</v>
       </c>
@@ -58237,7 +58245,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="782" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>1585180800</v>
       </c>
@@ -58302,7 +58310,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="783" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>1585180800</v>
       </c>
@@ -58367,7 +58375,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="784" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>1585180800</v>
       </c>
@@ -58432,7 +58440,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="785" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>1585180800</v>
       </c>
@@ -58491,7 +58499,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="786" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>1585180800</v>
       </c>
@@ -58556,7 +58564,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="787" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>1585180800</v>
       </c>
@@ -58686,7 +58694,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="789" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>1585180800</v>
       </c>
@@ -58751,7 +58759,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="790" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>1585180800</v>
       </c>
@@ -58813,7 +58821,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="791" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>1585180800</v>
       </c>
@@ -59008,7 +59016,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="794" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>1585180800</v>
       </c>
@@ -59073,7 +59081,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="795" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>1585180800</v>
       </c>
@@ -59132,7 +59140,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="796" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>1585180800</v>
       </c>
@@ -59197,7 +59205,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="797" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>1585180800</v>
       </c>
@@ -59256,7 +59264,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="798" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>1585180800</v>
       </c>
@@ -59321,7 +59329,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="799" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>1585180800</v>
       </c>
@@ -59386,7 +59394,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="800" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>1585180800</v>
       </c>
@@ -59451,7 +59459,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="801" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>1585180800</v>
       </c>
@@ -59510,7 +59518,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="802" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>1585180800</v>
       </c>
@@ -59569,7 +59577,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="803" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>1585180800</v>
       </c>
@@ -59634,7 +59642,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="804" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>1585180800</v>
       </c>
@@ -59699,7 +59707,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="805" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>1585180800</v>
       </c>
@@ -59764,7 +59772,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="806" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>1585180800</v>
       </c>
@@ -59829,7 +59837,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="807" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>1585180800</v>
       </c>
@@ -59894,7 +59902,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="808" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>1585180800</v>
       </c>
@@ -60024,7 +60032,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="810" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>1585180800</v>
       </c>
@@ -60089,7 +60097,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="811" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>1585180800</v>
       </c>
@@ -60154,7 +60162,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="812" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>1585180800</v>
       </c>
@@ -60284,7 +60292,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="814" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>1585180800</v>
       </c>
@@ -60411,7 +60419,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="816" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>1585180800</v>
       </c>
@@ -60476,7 +60484,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="817" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>1585180800</v>
       </c>
@@ -60541,7 +60549,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="818" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>1585180800</v>
       </c>
@@ -60606,7 +60614,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="819" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>1585180800</v>
       </c>
@@ -60671,7 +60679,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="820" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>1585180800</v>
       </c>
@@ -60730,7 +60738,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="821" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>1585180800</v>
       </c>
@@ -60795,7 +60803,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="822" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>1585180800</v>
       </c>
@@ -60860,7 +60868,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="823" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>1585180800</v>
       </c>
@@ -60925,7 +60933,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="824" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>1585180800</v>
       </c>
@@ -60984,7 +60992,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="825" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>1585180800</v>
       </c>
@@ -61049,7 +61057,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="826" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>1585180800</v>
       </c>
@@ -61114,7 +61122,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="827" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>1585180800</v>
       </c>
@@ -61179,7 +61187,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="828" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>1585180800</v>
       </c>
@@ -61238,7 +61246,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="829" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>1585180800</v>
       </c>
@@ -61303,7 +61311,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="830" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>1585180800</v>
       </c>
@@ -61362,7 +61370,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="831" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>1585180800</v>
       </c>
@@ -61427,7 +61435,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="832" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>1585180800</v>
       </c>
@@ -61492,7 +61500,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="833" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>1585180800</v>
       </c>
@@ -61557,7 +61565,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="834" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>1585180800</v>
       </c>
@@ -61619,7 +61627,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="835" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>1585180800</v>
       </c>
@@ -61684,7 +61692,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="836" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>1585180800</v>
       </c>
@@ -61743,7 +61751,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="837" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>1585180800</v>
       </c>
@@ -62068,7 +62076,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="842" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>1585180800</v>
       </c>
@@ -62133,7 +62141,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="843" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>1585180800</v>
       </c>
@@ -62198,7 +62206,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="844" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>1585180800</v>
       </c>
@@ -62263,7 +62271,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="845" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>1585180800</v>
       </c>
@@ -62328,7 +62336,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="846" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>1585180800</v>
       </c>
@@ -62653,7 +62661,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="851" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>1585180800</v>
       </c>
@@ -62718,7 +62726,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="852" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>1585180800</v>
       </c>
@@ -62783,7 +62791,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="853" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>1585180800</v>
       </c>
@@ -62848,7 +62856,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="854" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>1585180800</v>
       </c>
@@ -62907,7 +62915,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="855" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>1585180800</v>
       </c>
@@ -62972,7 +62980,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="856" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>1585180800</v>
       </c>
@@ -63037,7 +63045,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="857" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>1585180800</v>
       </c>
@@ -63102,7 +63110,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="858" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>1585180800</v>
       </c>
@@ -63232,7 +63240,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="860" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>1585180800</v>
       </c>
@@ -63297,7 +63305,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="861" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>1585180800</v>
       </c>
@@ -63362,7 +63370,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="862" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>1585180800</v>
       </c>
@@ -63421,7 +63429,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="863" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>1585180800</v>
       </c>
@@ -63480,7 +63488,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="864" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>1585180800</v>
       </c>
@@ -63545,7 +63553,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="865" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>1585180800</v>
       </c>
@@ -63610,7 +63618,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="866" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>1585180800</v>
       </c>
@@ -63740,7 +63748,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="868" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>1585180800</v>
       </c>
@@ -63799,7 +63807,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="869" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>1585180800</v>
       </c>
@@ -63864,7 +63872,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="870" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>1585180800</v>
       </c>
@@ -63923,7 +63931,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="871" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>1585180800</v>
       </c>
@@ -63982,7 +63990,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="872" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>1585180800</v>
       </c>
@@ -64041,7 +64049,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="873" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>1585180800</v>
       </c>
@@ -64100,7 +64108,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="874" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>1585180800</v>
       </c>
@@ -64165,7 +64173,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="875" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>1585180800</v>
       </c>
@@ -64230,7 +64238,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="876" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>1585180800</v>
       </c>
@@ -64295,7 +64303,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="877" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>1585180800</v>
       </c>
@@ -64354,7 +64362,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="878" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>1585180800</v>
       </c>
@@ -64419,7 +64427,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="879" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>1585180800</v>
       </c>
@@ -64478,7 +64486,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="880" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>1585180800</v>
       </c>
@@ -64537,7 +64545,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="881" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>1585180800</v>
       </c>
@@ -64602,7 +64610,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="882" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>1585180800</v>
       </c>
@@ -64667,7 +64675,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="883" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>1585180800</v>
       </c>
@@ -64797,7 +64805,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="885" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>1585180800</v>
       </c>
@@ -64862,7 +64870,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="886" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>1585180800</v>
       </c>
@@ -65051,7 +65059,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="889" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>1585180800</v>
       </c>
@@ -65110,7 +65118,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="890" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>1585180800</v>
       </c>
@@ -65175,7 +65183,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="891" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>1585180800</v>
       </c>
@@ -65240,7 +65248,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="892" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>1585180800</v>
       </c>
@@ -65305,7 +65313,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="893" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>1585180800</v>
       </c>
@@ -65370,7 +65378,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="894" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>1585180800</v>
       </c>
@@ -65565,7 +65573,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="897" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>1585180800</v>
       </c>
@@ -65630,7 +65638,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="898" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>1585180800</v>
       </c>
@@ -65689,7 +65697,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="899" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>1585180800</v>
       </c>
@@ -65754,7 +65762,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="900" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>1585180800</v>
       </c>
@@ -65814,13 +65822,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U900" xr:uid="{2B00B52B-8FAD-445F-B9C4-1C2487EBFDB5}">
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="3000000"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="U3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
